--- a/Public/templates/video.xlsx
+++ b/Public/templates/video.xlsx
@@ -38,106 +38,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频类型(ONE:单个视频;SET:视频系列);</t>
+  </si>
+  <si>
+    <t>八年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教程啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的空耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>versions_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>video_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频类型(ONE:单个视频;SET:视频系列);</t>
-  </si>
-  <si>
-    <r>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>教程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>教程视频</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>09</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET</t>
+    <t>versions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,13 +451,13 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,46 +478,46 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3">
@@ -563,16 +527,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Public/templates/video.xlsx
+++ b/Public/templates/video.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我们的空耳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,34 @@
   </si>
   <si>
     <t>19版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴赏哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -481,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -507,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -515,7 +539,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -533,10 +557,36 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
